--- a/invoice-python/sale_inv.xlsx
+++ b/invoice-python/sale_inv.xlsx
@@ -901,7 +901,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/invoice-python/sale_inv.xlsx
+++ b/invoice-python/sale_inv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="21">
   <si>
     <t>Size</t>
   </si>
@@ -49,34 +49,34 @@
     <t>6x2.5</t>
   </si>
   <si>
-    <t>5x4</t>
-  </si>
-  <si>
     <t>5x2.5</t>
   </si>
   <si>
-    <t>Bill</t>
+    <t>Party name</t>
   </si>
   <si>
-    <t>b1</t>
+    <t>p1</t>
   </si>
   <si>
-    <t>b2</t>
+    <t>p2</t>
   </si>
   <si>
-    <t>b3</t>
+    <t>p3</t>
   </si>
   <si>
-    <t>b4</t>
+    <t>p4</t>
   </si>
   <si>
-    <t>b5</t>
+    <t>p5</t>
   </si>
   <si>
-    <t>b6</t>
+    <t>p6</t>
   </si>
   <si>
-    <t>b7</t>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
   </si>
 </sst>
 </file>
@@ -898,17 +898,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -919,222 +922,1509 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
